--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apob-Lsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apob-Lsr.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.187949</v>
+        <v>0.330421</v>
       </c>
       <c r="N2">
-        <v>3.563847</v>
+        <v>0.991263</v>
       </c>
       <c r="O2">
-        <v>0.5044474386091261</v>
+        <v>0.1900853910865743</v>
       </c>
       <c r="P2">
-        <v>0.504447438609126</v>
+        <v>0.1900853910865742</v>
       </c>
       <c r="Q2">
-        <v>1.519973221823</v>
+        <v>0.4227715768336667</v>
       </c>
       <c r="R2">
-        <v>13.679758996407</v>
+        <v>3.804944191503</v>
       </c>
       <c r="S2">
-        <v>0.5044474386091261</v>
+        <v>0.1900853910865743</v>
       </c>
       <c r="T2">
-        <v>0.504447438609126</v>
+        <v>0.1900853910865742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>2.689064</v>
       </c>
       <c r="O3">
-        <v>0.3806256124508182</v>
+        <v>0.515657077987202</v>
       </c>
       <c r="P3">
-        <v>0.3806256124508181</v>
+        <v>0.515657077987202</v>
       </c>
       <c r="Q3">
         <v>1.146880119087111</v>
@@ -632,10 +632,10 @@
         <v>10.321921071784</v>
       </c>
       <c r="S3">
-        <v>0.3806256124508182</v>
+        <v>0.515657077987202</v>
       </c>
       <c r="T3">
-        <v>0.3806256124508181</v>
+        <v>0.515657077987202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2706473333333334</v>
+        <v>0.511501</v>
       </c>
       <c r="N4">
-        <v>0.8119420000000001</v>
+        <v>1.534503</v>
       </c>
       <c r="O4">
-        <v>0.1149269489400558</v>
+        <v>0.2942575309262239</v>
       </c>
       <c r="P4">
-        <v>0.1149269489400558</v>
+        <v>0.2942575309262239</v>
       </c>
       <c r="Q4">
-        <v>0.3462915489002222</v>
+        <v>0.6544622899936666</v>
       </c>
       <c r="R4">
-        <v>3.116623940102</v>
+        <v>5.890160609943</v>
       </c>
       <c r="S4">
-        <v>0.1149269489400558</v>
+        <v>0.2942575309262239</v>
       </c>
       <c r="T4">
-        <v>0.1149269489400558</v>
+        <v>0.2942575309262239</v>
       </c>
     </row>
   </sheetData>
